--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 5/05-02-specialized-rounding.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 5/05-02-specialized-rounding.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{16614AC8-ABC7-48B3-B221-0F93C032B834}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F736BA5C-B9A2-49F7-8D74-8385557F6EF1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECA7D3D9-8F7F-434D-81C3-D8E044F1B922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="1545" windowWidth="14685" windowHeight="12165" xr2:uid="{229B6CAF-F958-48D3-9CAE-22052FBCE6C5}"/>
+    <workbookView xWindow="6900" yWindow="2220" windowWidth="17280" windowHeight="8880" xr2:uid="{229B6CAF-F958-48D3-9CAE-22052FBCE6C5}"/>
   </bookViews>
   <sheets>
     <sheet name="SPECIAL ROUNDING" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>Order ID</t>
   </si>
@@ -47,6 +46,21 @@
   </si>
   <si>
     <t>Price + Tax</t>
+  </si>
+  <si>
+    <t>Special Rounding</t>
+  </si>
+  <si>
+    <t>MROUND</t>
+  </si>
+  <si>
+    <t>CEILING</t>
+  </si>
+  <si>
+    <t>FLOOR</t>
+  </si>
+  <si>
+    <t>Round</t>
   </si>
 </sst>
 </file>
@@ -99,11 +113,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,28 +385,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018E06C8-E7E6-45D7-8698-CA7B553F3C55}">
-  <dimension ref="A2:E23"/>
+  <dimension ref="A2:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="3" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
-    <col min="7" max="7" width="20.25" customWidth="1"/>
-    <col min="8" max="13" width="6.75" customWidth="1"/>
-    <col min="14" max="14" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.09765625" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.09765625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.19921875" customWidth="1"/>
+    <col min="8" max="8" width="6.69921875" customWidth="1"/>
+    <col min="9" max="9" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="6.69921875" customWidth="1"/>
+    <col min="14" max="14" width="5.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.25">
-      <c r="E2" s="1" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -397,11 +420,26 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="L3" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -409,11 +447,30 @@
         <v>4.88</v>
       </c>
       <c r="C4" s="2">
-        <f>B4*$E$3+B4</f>
+        <f>B4*$I$3+B4</f>
         <v>5.0019999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D4" s="4">
+        <f>ROUND(C4*$I$3+C4,2)</f>
+        <v>5.13</v>
+      </c>
+      <c r="E4" s="4">
+        <f>MROUND(C4*$I$3+C4,0.1)</f>
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="F4" s="4">
+        <f>_xlfn.CEILING.MATH(C4*$I$3+C4,0.5)</f>
+        <v>5.5</v>
+      </c>
+      <c r="G4">
+        <f>_xlfn.FLOOR.MATH(C4*$I$3+C4,0.1)</f>
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -421,11 +478,30 @@
         <v>7.1923932497802241</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C23" si="0">B5*$E$3+B5</f>
+        <f>B5*$I$3+B5</f>
         <v>7.3722030810247299</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D5" s="4">
+        <f t="shared" ref="D5:D23" si="0">ROUND(C5*$I$3+C5,2)</f>
+        <v>7.56</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:E23" si="1">MROUND(C5*$I$3+C5,0.1)</f>
+        <v>7.6000000000000005</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F23" si="2">_xlfn.CEILING.MATH(C5*$I$3+C5,0.5)</f>
+        <v>8</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" ref="G5:G23" si="3">_xlfn.FLOOR.MATH(C5*$I$3+C5,0.1)</f>
+        <v>7.5</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -433,11 +509,30 @@
         <v>6.5097701617166859</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
+        <f>B6*$I$3+B6</f>
         <v>6.6725144157596032</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>6.84</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="3"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -445,11 +540,27 @@
         <v>7.976103418887277</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
+        <f>B7*$I$3+B7</f>
         <v>8.175506004359459</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="3"/>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -457,11 +568,27 @@
         <v>6.0390715695105026</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
+        <f>B8*$I$3+B8</f>
         <v>6.1900483587482649</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>6.34</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>6.3000000000000007</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="3"/>
+        <v>6.3000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1005</v>
       </c>
@@ -469,11 +596,27 @@
         <v>5.1429346253266015</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
+        <f>B9*$I$3+B9</f>
         <v>5.2715079909597664</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D9" s="4">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="3"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1006</v>
       </c>
@@ -481,11 +624,27 @@
         <v>5.746561718948648</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
+        <f>B10*$I$3+B10</f>
         <v>5.8902257619223644</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="4">
+        <f t="shared" si="0"/>
+        <v>6.04</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>6.5</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1007</v>
       </c>
@@ -493,11 +652,27 @@
         <v>6.4074090086289903</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
+        <f>B11*$I$3+B11</f>
         <v>6.5675942338447149</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="4">
+        <f t="shared" si="0"/>
+        <v>6.73</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G11" s="5">
+        <f t="shared" si="3"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1008</v>
       </c>
@@ -505,11 +680,27 @@
         <v>6.9959081856237102</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="0"/>
+        <f>B12*$I$3+B12</f>
         <v>7.1708058902643028</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D12" s="4">
+        <f t="shared" si="0"/>
+        <v>7.35</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="1"/>
+        <v>7.4</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="3"/>
+        <v>7.3000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1009</v>
       </c>
@@ -517,11 +708,27 @@
         <v>6.4499344659098181</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="0"/>
+        <f>B13*$I$3+B13</f>
         <v>6.6111828275575633</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D13" s="4">
+        <f t="shared" si="0"/>
+        <v>6.78</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="G13" s="5">
+        <f t="shared" si="3"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1010</v>
       </c>
@@ -529,11 +736,27 @@
         <v>7.8898660506050149</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="0"/>
+        <f>B14*$I$3+B14</f>
         <v>8.0871127018701401</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D14" s="4">
+        <f t="shared" si="0"/>
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="1"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="3"/>
+        <v>8.2000000000000011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1011</v>
       </c>
@@ -541,11 +764,27 @@
         <v>7.3859779135895458</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="0"/>
+        <f>B15*$I$3+B15</f>
         <v>7.5706273614292847</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D15" s="4">
+        <f t="shared" si="0"/>
+        <v>7.76</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="3"/>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1012</v>
       </c>
@@ -553,11 +792,27 @@
         <v>7.0731726762059672</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="0"/>
+        <f>B16*$I$3+B16</f>
         <v>7.2500019931111161</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="4">
+        <f t="shared" si="0"/>
+        <v>7.43</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="1"/>
+        <v>7.4</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>7.5</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="3"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1013</v>
       </c>
@@ -565,11 +820,27 @@
         <v>7.7163944878693052</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="0"/>
+        <f>B17*$I$3+B17</f>
         <v>7.909304350066038</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="4">
+        <f t="shared" si="0"/>
+        <v>8.11</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="3"/>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1014</v>
       </c>
@@ -577,11 +848,27 @@
         <v>7.4451693227810622</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="0"/>
+        <f>B18*$I$3+B18</f>
         <v>7.6312985558505888</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="4">
+        <f t="shared" si="0"/>
+        <v>7.82</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="1"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="3"/>
+        <v>7.8000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1015</v>
       </c>
@@ -589,11 +876,27 @@
         <v>7.8589603854569869</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="0"/>
+        <f>B19*$I$3+B19</f>
         <v>8.0554343950934122</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="4">
+        <f t="shared" si="0"/>
+        <v>8.26</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="1"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="2"/>
+        <v>8.5</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="3"/>
+        <v>8.2000000000000011</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1016</v>
       </c>
@@ -601,11 +904,27 @@
         <v>5.6885281218747252</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="0"/>
+        <f>B20*$I$3+B20</f>
         <v>5.8307413249215934</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="4">
+        <f t="shared" si="0"/>
+        <v>5.98</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G20" s="5">
+        <f t="shared" si="3"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1017</v>
       </c>
@@ -613,11 +932,27 @@
         <v>5.1346078877436465</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="0"/>
+        <f>B21*$I$3+B21</f>
         <v>5.2629730849372374</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="4">
+        <f t="shared" si="0"/>
+        <v>5.39</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" si="3"/>
+        <v>5.3000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1018</v>
       </c>
@@ -625,11 +960,27 @@
         <v>5.1249969235687445</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="0"/>
+        <f>B22*$I$3+B22</f>
         <v>5.2531218466579634</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="4">
+        <f t="shared" si="0"/>
+        <v>5.38</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="3"/>
+        <v>5.3000000000000007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1019</v>
       </c>
@@ -637,8 +988,24 @@
         <v>5.4323392477410462</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="0"/>
+        <f>B23*$I$3+B23</f>
         <v>5.568147728934572</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" si="0"/>
+        <v>5.71</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="1"/>
+        <v>5.7</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="3"/>
+        <v>5.7</v>
       </c>
     </row>
   </sheetData>
